--- a/Public/data/Data.xlsx
+++ b/Public/data/Data.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -416,82 +416,19 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="str">
+        <v>dsd</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <v>wdwd</v>
+      </c>
+      <c r="C2" s="1" t="str">
         <v/>
-      </c>
-      <c r="B2" s="1" t="str">
-        <v/>
-      </c>
-      <c r="C2" s="1" t="str">
-        <v>r@r</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="str">
-        <v>e</v>
-      </c>
-      <c r="B3" s="1" t="str">
-        <v>wdad</v>
-      </c>
-      <c r="C3" s="1" t="str">
-        <v>aw@ads</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="str">
-        <v>wd</v>
-      </c>
-      <c r="B4" s="1" t="str">
-        <v>dfg</v>
-      </c>
-      <c r="C4" s="1" t="str">
-        <v>sd@dw.cz</v>
-      </c>
-      <c r="D4" s="1" t="str">
-        <v>on</v>
-      </c>
-      <c r="E4" s="1" t="str">
-        <v>on</v>
-      </c>
-      <c r="F4" s="1" t="str">
-        <v>on</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="str">
-        <v>e</v>
-      </c>
-      <c r="B5" s="1" t="str">
-        <v>w</v>
-      </c>
-      <c r="C5" s="1" t="str">
-        <v>ll@asd</v>
-      </c>
-      <c r="D5" s="1" t="str">
-        <v>on</v>
-      </c>
-      <c r="E5" s="1" t="str">
-        <v>on</v>
-      </c>
-      <c r="F5" s="1" t="str">
-        <v>on</v>
-      </c>
-      <c r="G5" s="1" t="str">
-        <v>on</v>
-      </c>
-      <c r="H5" s="1" t="str">
-        <v>on</v>
-      </c>
-      <c r="I5" s="1" t="str">
-        <v>on</v>
-      </c>
-      <c r="J5" s="1" t="str">
-        <v>on</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J6"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Public/data/Data.xlsx
+++ b/Public/data/Data.xlsx
@@ -17,41 +17,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t xml:space="preserve">Jmeno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prijmeni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elektrikář</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nástrojař</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Obraběč kovů</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mechanik elektrtechnik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elektrikář silnoproud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mechanik seřizovač</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strojní Mechanik</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -154,46 +119,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="C1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A2:B2"/>
+      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="1"/>
     </row>

--- a/Public/data/Data.xlsx
+++ b/Public/data/Data.xlsx
@@ -17,6 +17,41 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t xml:space="preserve">Jmeno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prijmeni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mechnaik_emektrotechnik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elektrikář</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elektrikář_silnoproud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mechanik_seřizovač</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nastrojař</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obraběč_kovů</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strojní_mechanik</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -119,15 +154,46 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C1:C2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="A1:K1"/>
+      <selection pane="topLeft" activeCell="N3" activeCellId="0" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="1"/>
     </row>

--- a/Public/data/Data.xlsx
+++ b/Public/data/Data.xlsx
@@ -22,13 +22,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t xml:space="preserve">Jmeno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prijmeni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emai</t>
+    <t xml:space="preserve">jmeno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prijmeni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">email</t>
   </si>
   <si>
     <t xml:space="preserve">mechnaik_emektrotechnik</t>
@@ -157,40 +157,40 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N3" activeCellId="0" sqref="N3"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.46875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Public/data/Data.xlsx
+++ b/Public/data/Data.xlsx
@@ -17,41 +17,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t xml:space="preserve">jmeno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prijmeni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mechnaik_emektrotechnik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">elektrikář</t>
-  </si>
-  <si>
-    <t xml:space="preserve">elektrikář_silnoproud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mechanik_seřizovač</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nastrojař</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obraběč_kovů</t>
-  </si>
-  <si>
-    <t xml:space="preserve">strojní_mechanik</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -154,46 +119,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="C1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.46875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="1"/>
     </row>

--- a/Public/data/Data.xlsx
+++ b/Public/data/Data.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="List2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -122,10 +123,10 @@
   <dimension ref="C1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:J1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -140,4 +141,27 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,obyčejné"&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,obyčejné"&amp;KffffffStránka &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>